--- a/handouts/grade_calc.xlsx
+++ b/handouts/grade_calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\assignments-2023\faculty_asgn_mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2024\handouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F7EE8-6061-4213-9DAD-9886BAFD1551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F16EA7-6BB6-409A-AE55-2DA254B3623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17310" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,12 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -263,9 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,9 +280,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -324,9 +320,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,26 +355,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,26 +390,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,34 +569,34 @@
   <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.26953125" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -643,35 +605,34 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:12" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -681,7 +642,7 @@
       <c r="D7" s="3">
         <v>80</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -690,14 +651,14 @@
       <c r="I7" s="2">
         <v>80</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.1</v>
       </c>
-      <c r="L7" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -713,11 +674,11 @@
       <c r="I8" s="2">
         <v>80</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -733,11 +694,11 @@
       <c r="I9" s="2">
         <v>80</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -753,15 +714,15 @@
       <c r="I10" s="2">
         <v>80</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="3">
@@ -773,11 +734,11 @@
       <c r="I11" s="2">
         <v>80</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -787,17 +748,17 @@
       <c r="D12" s="3">
         <v>80</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="6">
-        <v>80</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="5">
+        <v>80</v>
+      </c>
+      <c r="J12" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -808,7 +769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -819,18 +780,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -855,15 +816,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D18">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F18">
         <v>0.1</v>
